--- a/memoria/escalar_agentes/libre/libre.xlsx
+++ b/memoria/escalar_agentes/libre/libre.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\libre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\libre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B20CC9D-0620-41FE-9146-5931E4BF9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E75DEB2-C53E-4672-9D8F-B109409E6A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MARL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="36">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -129,7 +130,19 @@
     <t>tiempo_en_acabar</t>
   </si>
   <si>
-    <t>completion_time</t>
+    <t>push_out</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>good_pred</t>
+  </si>
+  <si>
+    <t>bad_pred</t>
+  </si>
+  <si>
+    <t>rate_pred</t>
   </si>
 </sst>
 </file>
@@ -5505,6 +5518,2628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>push_out vs total de movimientos (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>push_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>1.1591331863033438</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.915523627948966</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6259119728908278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3484856004209629</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.5032422172444431</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0099235877367017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5173304044891127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14.512947358329422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.312074540351816</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.820735063602932</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18.138993272039016</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22.586585535530734</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24.51870034619834</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27.392493824927985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.659592633188758</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>39.380295736671307</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37.047128682122498</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>55.953987507135885</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>64.796941206692694</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>49.229030418010836</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>1.1591331863033438</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.915523627948966</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6259119728908278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3484856004209629</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.5032422172444431</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0099235877367017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5173304044891127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14.512947358329422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.312074540351816</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.820735063602932</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18.138993272039016</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22.586585535530734</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24.51870034619834</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27.392493824927985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.659592633188758</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>39.380295736671307</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37.047128682122498</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>55.953987507135885</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>64.796941206692694</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>49.229030418010836</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.524999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.1591331863033438</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.915523627948966</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6259119728908278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3484856004209629</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.5032422172444431</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0099235877367017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5173304044891127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14.512947358329422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.312074540351816</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.820735063602932</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18.138993272039016</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22.586585535530734</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24.51870034619834</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27.392493824927985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.659592633188758</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>39.380295736671307</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37.047128682122498</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>55.953987507135885</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>64.796941206692694</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>49.229030418010836</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.1591331863033438</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.915523627948966</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6259119728908278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3484856004209629</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.5032422172444431</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0099235877367017</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5173304044891127</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14.512947358329422</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.312074540351816</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>19.820735063602932</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>18.138993272039016</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22.586585535530734</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24.51870034619834</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>27.392493824927985</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>38.659592633188758</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>39.380295736671307</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37.047128682122498</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>55.953987507135885</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>64.796941206692694</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>49.229030418010836</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>253.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>849.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1059.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1152.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1337.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1786.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1897.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2188.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2663.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2843.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3075.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3904.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3826.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4280.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4792.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4987.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>predicciones (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>good_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>7.404780160866971</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.268874639976854</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.628012076189151</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.156115125454647</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>83.003394277212905</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>28.071840073785779</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>53.729402732104866</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>125.82423383638313</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>125.83658256969836</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>156.02685296497475</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>204.75585837397068</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>214.33654192677506</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>206.99770839806726</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>279.28002214485514</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>500.62299072870582</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>481.42469123771929</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>498.80915560758177</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>751.55586951337148</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1112.6335990077891</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>888.41217875430686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>7.404780160866971</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.268874639976854</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.628012076189151</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.156115125454647</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>83.003394277212905</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>28.071840073785779</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>53.729402732104866</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>125.82423383638313</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>125.83658256969836</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>156.02685296497475</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>204.75585837397068</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>214.33654192677506</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>206.99770839806726</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>279.28002214485514</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>500.62299072870582</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>481.42469123771929</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>498.80915560758177</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>751.55586951337148</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1112.6335990077891</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>888.41217875430686</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$24:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>436.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>917.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>816.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1257.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2222.4250000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2468.9749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3720.0749999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4695.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5570.2749999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5516.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6642.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9024.5750000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11336.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11652.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14229.075000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19086.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20625.174999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bad_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>8.2167745871104891</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.327960509478242</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.54830006385675</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.234557026065474</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>66.197523967948982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>40.000512817225555</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>52.141597154730057</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>116.26874263025515</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>94.254850925970501</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>126.50148220475522</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>151.83856981034589</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>186.45117598352934</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>156.34280013433991</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>187.51068174701612</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>282.22774491534312</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>378.2146690669677</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>311.87127110971562</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>390.88165957853766</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>560.54155075980327</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>461.07649888116481</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>8.2167745871104891</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22.327960509478242</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.54830006385675</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>32.234557026065474</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>66.197523967948982</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>40.000512817225555</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>52.141597154730057</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>116.26874263025515</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>94.254850925970501</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>126.50148220475522</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>151.83856981034589</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>186.45117598352934</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>156.34280013433991</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>187.51068174701612</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>282.22774491534312</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>378.2146690669677</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>311.87127110971562</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>390.88165957853766</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>560.54155075980327</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>461.07649888116481</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$46:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>77.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>266.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>523.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>950.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>809.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1338.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2561.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2543.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3683.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4678.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5642.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5447.1750000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6799.4750000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8264.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10321.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10592.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12431.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15766.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16134.275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>ratio de predicciones (accuarcy) (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rate_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.1577673563824214E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5716117169158026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6674678283691855E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0064061525312301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6674678283691862E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.7434164902525687E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2072142786315217E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.1577673563824214E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5716117169158026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6674678283691855E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0064061525312301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.6674678283691862E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.7434164902525687E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2072142786315217E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$68:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.61250000000000016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50250000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5425000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49249999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46749999999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40500000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E2C-457A-B9B9-1DC854B61389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5705,6 +8340,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7770,6 +10525,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8966,6 +13269,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76158A2B-04FE-43DC-8B13-C15EB0D5D4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC6761C-B68A-4F99-8596-E808C82DE4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D88FD77-B9FF-4C9C-A1ED-EBA800BEE52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9265,8 +13687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,7 +13713,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -11700,4 +16122,1433 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>253.7</v>
+      </c>
+      <c r="H2">
+        <v>257</v>
+      </c>
+      <c r="I2">
+        <v>1.1591331863033438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>508.65</v>
+      </c>
+      <c r="H3">
+        <v>515</v>
+      </c>
+      <c r="I3">
+        <v>1.915523627948966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.37893237337253671</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>682.65</v>
+      </c>
+      <c r="H4">
+        <v>687</v>
+      </c>
+      <c r="I4">
+        <v>1.6259119728908278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.22072142786315224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>849.15</v>
+      </c>
+      <c r="H5">
+        <v>854</v>
+      </c>
+      <c r="I5">
+        <v>2.3484856004209629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2.8175275577111112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1059.55</v>
+      </c>
+      <c r="H6">
+        <v>1076</v>
+      </c>
+      <c r="I6">
+        <v>8.5032422172444431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1.25</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1.7650452162436563</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1152.3499999999999</v>
+      </c>
+      <c r="H7">
+        <v>1159</v>
+      </c>
+      <c r="I7">
+        <v>4.0099235877367017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2.1241891363952239</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>1337.95</v>
+      </c>
+      <c r="H8">
+        <v>1354</v>
+      </c>
+      <c r="I8">
+        <v>7.5173304044891127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>5.05</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>4.0695870136339956</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>1786.2</v>
+      </c>
+      <c r="H9">
+        <v>1814</v>
+      </c>
+      <c r="I9">
+        <v>14.512947358329422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3.4</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>3.2407659746677333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>1897.55</v>
+      </c>
+      <c r="H10">
+        <v>1929</v>
+      </c>
+      <c r="I10">
+        <v>12.312074540351816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7.875</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>4.7349627025850793</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2188.6</v>
+      </c>
+      <c r="H11">
+        <v>2238</v>
+      </c>
+      <c r="I11">
+        <v>19.820735063602932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>11.15</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>5.7313801085530836</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>2663.55</v>
+      </c>
+      <c r="H12">
+        <v>2711</v>
+      </c>
+      <c r="I12">
+        <v>18.138993272039016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>13.925000000000001</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>5.4178598291396503</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>2739</v>
+      </c>
+      <c r="H13">
+        <v>2784</v>
+      </c>
+      <c r="I13">
+        <v>22.586585535530734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>14.875</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>6.7868179168073635</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>2843.25</v>
+      </c>
+      <c r="H14">
+        <v>2898</v>
+      </c>
+      <c r="I14">
+        <v>24.51870034619834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>17.524999999999999</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>6.3810114944503669</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>3075.1</v>
+      </c>
+      <c r="H15">
+        <v>3133</v>
+      </c>
+      <c r="I15">
+        <v>27.392493824927985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>28.1</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>9.2702999702523918</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3269</v>
+      </c>
+      <c r="H16">
+        <v>3373</v>
+      </c>
+      <c r="I16">
+        <v>38.659592633188758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>35.9</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>9.8963862868453898</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>3904.25</v>
+      </c>
+      <c r="H17">
+        <v>3988</v>
+      </c>
+      <c r="I17">
+        <v>39.380295736671307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>36.575000000000003</v>
+      </c>
+      <c r="C18">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>10.616599243033502</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>3826.85</v>
+      </c>
+      <c r="H18">
+        <v>3910</v>
+      </c>
+      <c r="I18">
+        <v>37.047128682122498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>55.65</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>13.575146974696647</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>4280.1499999999996</v>
+      </c>
+      <c r="H19">
+        <v>4405</v>
+      </c>
+      <c r="I19">
+        <v>55.953987507135885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>64.2</v>
+      </c>
+      <c r="C20">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>13.187406580055539</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>4792.1499999999996</v>
+      </c>
+      <c r="H20">
+        <v>4964</v>
+      </c>
+      <c r="I20">
+        <v>64.796941206692694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>13.628401716024278</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4987.3</v>
+      </c>
+      <c r="H21">
+        <v>5080</v>
+      </c>
+      <c r="I21">
+        <v>49.229030418010836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>47.3</v>
+      </c>
+      <c r="C24">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>7.404780160866971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>128.125</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>16.268874639976854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>267.77499999999998</v>
+      </c>
+      <c r="C26">
+        <v>340</v>
+      </c>
+      <c r="D26">
+        <v>27.628012076189151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>436.875</v>
+      </c>
+      <c r="C27">
+        <v>488</v>
+      </c>
+      <c r="D27">
+        <v>25.156115125454647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>917.22500000000002</v>
+      </c>
+      <c r="C28">
+        <v>1143</v>
+      </c>
+      <c r="D28">
+        <v>83.003394277212905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>816.15</v>
+      </c>
+      <c r="C29">
+        <v>880</v>
+      </c>
+      <c r="D29">
+        <v>28.071840073785779</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>1257.1500000000001</v>
+      </c>
+      <c r="C30">
+        <v>1391</v>
+      </c>
+      <c r="D30">
+        <v>53.729402732104866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>2222.4250000000002</v>
+      </c>
+      <c r="C31">
+        <v>2453</v>
+      </c>
+      <c r="D31">
+        <v>125.82423383638313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>2468.9749999999999</v>
+      </c>
+      <c r="C32">
+        <v>2770</v>
+      </c>
+      <c r="D32">
+        <v>125.83658256969836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>3720.0749999999998</v>
+      </c>
+      <c r="C33">
+        <v>4118</v>
+      </c>
+      <c r="D33">
+        <v>156.02685296497475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>4695.75</v>
+      </c>
+      <c r="C34">
+        <v>5553</v>
+      </c>
+      <c r="D34">
+        <v>204.75585837397068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>5570.2749999999996</v>
+      </c>
+      <c r="C35">
+        <v>6014</v>
+      </c>
+      <c r="D35">
+        <v>214.33654192677506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>5516.5</v>
+      </c>
+      <c r="C36">
+        <v>6149</v>
+      </c>
+      <c r="D36">
+        <v>206.99770839806726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>6642.45</v>
+      </c>
+      <c r="C37">
+        <v>7244</v>
+      </c>
+      <c r="D37">
+        <v>279.28002214485514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>9024.5750000000007</v>
+      </c>
+      <c r="C38">
+        <v>10555</v>
+      </c>
+      <c r="D38">
+        <v>500.62299072870582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>11336.4</v>
+      </c>
+      <c r="C39">
+        <v>12323</v>
+      </c>
+      <c r="D39">
+        <v>481.42469123771929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>11652.875</v>
+      </c>
+      <c r="C40">
+        <v>12594</v>
+      </c>
+      <c r="D40">
+        <v>498.80915560758177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>14229.075000000001</v>
+      </c>
+      <c r="C41">
+        <v>16168</v>
+      </c>
+      <c r="D41">
+        <v>751.55586951337148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>19086.25</v>
+      </c>
+      <c r="C42">
+        <v>22487</v>
+      </c>
+      <c r="D42">
+        <v>1112.6335990077891</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>20625.174999999999</v>
+      </c>
+      <c r="C43">
+        <v>22997</v>
+      </c>
+      <c r="D43">
+        <v>888.41217875430686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="C46">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>8.2167745871104891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>130.97499999999999</v>
+      </c>
+      <c r="C47">
+        <v>184</v>
+      </c>
+      <c r="D47">
+        <v>22.327960509478242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>266.125</v>
+      </c>
+      <c r="C48">
+        <v>307</v>
+      </c>
+      <c r="D48">
+        <v>23.54830006385675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>523.9</v>
+      </c>
+      <c r="C49">
+        <v>585</v>
+      </c>
+      <c r="D49">
+        <v>32.234557026065474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>950.875</v>
+      </c>
+      <c r="C50">
+        <v>1123</v>
+      </c>
+      <c r="D50">
+        <v>66.197523967948982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>809.6</v>
+      </c>
+      <c r="C51">
+        <v>890</v>
+      </c>
+      <c r="D51">
+        <v>40.000512817225555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>1338.65</v>
+      </c>
+      <c r="C52">
+        <v>1519</v>
+      </c>
+      <c r="D52">
+        <v>52.141597154730057</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>2561.6999999999998</v>
+      </c>
+      <c r="C53">
+        <v>2959</v>
+      </c>
+      <c r="D53">
+        <v>116.26874263025515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>2543.85</v>
+      </c>
+      <c r="C54">
+        <v>2750</v>
+      </c>
+      <c r="D54">
+        <v>94.254850925970501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>3683.125</v>
+      </c>
+      <c r="C55">
+        <v>3922</v>
+      </c>
+      <c r="D55">
+        <v>126.50148220475522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>4678.6499999999996</v>
+      </c>
+      <c r="C56">
+        <v>4965</v>
+      </c>
+      <c r="D56">
+        <v>151.83856981034589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>5642.1</v>
+      </c>
+      <c r="C57">
+        <v>5964</v>
+      </c>
+      <c r="D57">
+        <v>186.45117598352934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>5447.1750000000002</v>
+      </c>
+      <c r="C58">
+        <v>5746</v>
+      </c>
+      <c r="D58">
+        <v>156.34280013433991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>6799.4750000000004</v>
+      </c>
+      <c r="C59">
+        <v>7190</v>
+      </c>
+      <c r="D59">
+        <v>187.51068174701612</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>8264.75</v>
+      </c>
+      <c r="C60">
+        <v>9051</v>
+      </c>
+      <c r="D60">
+        <v>282.22774491534312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>10321.15</v>
+      </c>
+      <c r="C61">
+        <v>11212</v>
+      </c>
+      <c r="D61">
+        <v>378.2146690669677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>10592.45</v>
+      </c>
+      <c r="C62">
+        <v>11178</v>
+      </c>
+      <c r="D62">
+        <v>311.87127110971562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>12431.7</v>
+      </c>
+      <c r="C63">
+        <v>13468</v>
+      </c>
+      <c r="D63">
+        <v>390.88165957853766</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>15766.125</v>
+      </c>
+      <c r="C64">
+        <v>17020</v>
+      </c>
+      <c r="D64">
+        <v>560.54155075980327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>16134.275</v>
+      </c>
+      <c r="C65">
+        <v>16901</v>
+      </c>
+      <c r="D65">
+        <v>461.07649888116481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>0.61250000000000016</v>
+      </c>
+      <c r="C68">
+        <v>0.7</v>
+      </c>
+      <c r="D68">
+        <v>5.1577673563824214E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>0.50250000000000006</v>
+      </c>
+      <c r="C69">
+        <v>0.6</v>
+      </c>
+      <c r="D69">
+        <v>3.5716117169158026E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.5</v>
+      </c>
+      <c r="D70">
+        <v>2.6674678283691855E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>0.5425000000000002</v>
+      </c>
+      <c r="C71">
+        <v>0.6</v>
+      </c>
+      <c r="D71">
+        <v>5.0064061525312301E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0.5</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>0.5</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="C75">
+        <v>0.6</v>
+      </c>
+      <c r="D75">
+        <v>2.6674678283691862E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>0.5</v>
+      </c>
+      <c r="C76">
+        <v>0.5</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>0.5</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>0.5</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>0.5</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>0.5</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>0.5</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>0.5</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <v>0.5</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>0.49249999999999988</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="D85">
+        <v>2.6674678283691841E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86">
+        <v>0.46749999999999992</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <v>4.7434164902525687E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>0.40500000000000014</v>
+      </c>
+      <c r="C87">
+        <v>0.5</v>
+      </c>
+      <c r="D87">
+        <v>2.2072142786315217E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/memoria/escalar_agentes/libre/libre.xlsx
+++ b/memoria/escalar_agentes/libre/libre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\libre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E75DEB2-C53E-4672-9D8F-B109409E6A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ECC48F-8380-4FF7-B63A-6EDEF059DEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1131,6 +1131,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1173,6 +1231,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2304,6 +2363,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2346,6 +2463,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3295,6 +3413,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3337,6 +3513,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4290,6 +4467,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4332,6 +4567,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -5276,6 +5512,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5318,6 +5612,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6261,6 +6556,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6303,12 +6656,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7242,6 +7597,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7284,6 +7697,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -7902,6 +8316,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7944,6 +8416,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -13687,8 +14160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="H70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16128,8 +16601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/memoria/escalar_agentes/libre/libre.xlsx
+++ b/memoria/escalar_agentes/libre/libre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\libre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\libre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ECC48F-8380-4FF7-B63A-6EDEF059DEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D2F51-1794-4D81-AEFB-798688A73688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-20610" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>agentes_en_goal</t>
-  </si>
-  <si>
-    <t>MARL</t>
   </si>
   <si>
     <t>Baseline</t>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>rate_pred</t>
+  </si>
+  <si>
+    <t>CR-MAPF</t>
   </si>
 </sst>
 </file>
@@ -236,15 +236,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> sum of costs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>MARL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t>/Baseline (40 runs)</a:t>
+              <a:t> sum of costs (40 runs)</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -294,7 +286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1476,7 +1468,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>MARL/Baseline (40 runs)</a:t>
+              <a:t>(40 runs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1525,7 +1517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2749,7 +2741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3803,7 +3795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4848,7 +4840,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14160,8 +14152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="H70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14172,39 +14164,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -14212,7 +14204,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>25.37</v>
@@ -14230,7 +14222,7 @@
         <v>25.3</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>25.76</v>
@@ -14250,7 +14242,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>25.432500000000001</v>
@@ -14268,7 +14260,7 @@
         <v>25.35</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>25.445</v>
@@ -14288,7 +14280,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>22.754999999999999</v>
@@ -14306,7 +14298,7 @@
         <v>22.7</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>23.004999999999999</v>
@@ -14326,7 +14318,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>21.228750000000002</v>
@@ -14344,7 +14336,7 @@
         <v>21.15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>21.37</v>
@@ -14402,7 +14394,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>19.205833333333331</v>
@@ -14420,7 +14412,7 @@
         <v>19.016666666666669</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>19.512499999999999</v>
@@ -14440,7 +14432,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>19.113571428571429</v>
@@ -14458,7 +14450,7 @@
         <v>18.68571428571429</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>19.602142857142859</v>
@@ -14478,7 +14470,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>22.327500000000001</v>
@@ -14496,7 +14488,7 @@
         <v>21.7</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>22.857500000000002</v>
@@ -14516,7 +14508,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>21.08388888888889</v>
@@ -14534,7 +14526,7 @@
         <v>20.43333333333333</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>21.991666666666671</v>
@@ -14592,7 +14584,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>24.21409090909091</v>
@@ -14610,7 +14602,7 @@
         <v>23.13636363636364</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>25.106363636363639</v>
@@ -14630,7 +14622,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>22.824999999999999</v>
@@ -14648,7 +14640,7 @@
         <v>21.5</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>24.01541666666667</v>
@@ -14668,7 +14660,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>21.871153846153849</v>
@@ -14686,7 +14678,7 @@
         <v>20.738461538461539</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>23.37230769230769</v>
@@ -14706,7 +14698,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>21.965</v>
@@ -14724,7 +14716,7 @@
         <v>20.607142857142861</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>23.25</v>
@@ -14782,7 +14774,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>24.401562500000001</v>
@@ -14800,7 +14792,7 @@
         <v>22.274999999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>25.961874999999999</v>
@@ -14820,7 +14812,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>22.510882352941181</v>
@@ -14838,7 +14830,7 @@
         <v>20.52941176470588</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>24.019411764705879</v>
@@ -14858,7 +14850,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>23.778611111111111</v>
@@ -14876,7 +14868,7 @@
         <v>21.194444444444439</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>25.439722222222219</v>
@@ -14896,7 +14888,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>25.221842105263161</v>
@@ -14914,7 +14906,7 @@
         <v>22.05263157894737</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>26.676578947368419</v>
@@ -14992,7 +14984,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>37</v>
@@ -15004,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>38</v>
@@ -15018,7 +15010,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -15030,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>41</v>
@@ -15044,7 +15036,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>59</v>
@@ -15056,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>60</v>
@@ -15070,7 +15062,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>41</v>
@@ -15082,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>42</v>
@@ -15122,7 +15114,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>51</v>
@@ -15134,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>52</v>
@@ -15148,7 +15140,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>44.024999999999999</v>
@@ -15160,7 +15152,7 @@
         <v>0.15811388300841889</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>45.774999999999999</v>
@@ -15174,7 +15166,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>47.35</v>
@@ -15186,7 +15178,7 @@
         <v>1.1446643220859165</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>49.05</v>
@@ -15200,7 +15192,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>48</v>
@@ -15212,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>49.05</v>
@@ -15252,7 +15244,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>57.15</v>
@@ -15264,7 +15256,7 @@
         <v>0.80224045247652787</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>58.6</v>
@@ -15278,7 +15270,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>53.35</v>
@@ -15290,7 +15282,7 @@
         <v>1.0989505483379625</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38">
         <v>54.924999999999997</v>
@@ -15304,7 +15296,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>48.225000000000001</v>
@@ -15316,7 +15308,7 @@
         <v>2.0691568950686792</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39">
         <v>51.475000000000001</v>
@@ -15330,7 +15322,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>46.45</v>
@@ -15342,7 +15334,7 @@
         <v>2.4801778265443093</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>49.825000000000003</v>
@@ -15382,7 +15374,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>51.3</v>
@@ -15394,7 +15386,7 @@
         <v>3.0651055112135688</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42">
         <v>53.45</v>
@@ -15408,7 +15400,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>52.125</v>
@@ -15420,7 +15412,7 @@
         <v>4.5583819666462961</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <v>52.95</v>
@@ -15434,7 +15426,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>54.225000000000001</v>
@@ -15446,7 +15438,7 @@
         <v>4.5375216323564311</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44">
         <v>54</v>
@@ -15460,7 +15452,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>55.024999999999999</v>
@@ -15472,7 +15464,7 @@
         <v>3.4528880516802012</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>56.825000000000003</v>
@@ -15512,7 +15504,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -15521,7 +15513,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -15532,7 +15524,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>37</v>
@@ -15544,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>38</v>
@@ -15558,7 +15550,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -15570,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -15584,7 +15576,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>59</v>
@@ -15596,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>60</v>
@@ -15610,7 +15602,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>41</v>
@@ -15622,7 +15614,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -15662,7 +15654,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>51</v>
@@ -15674,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>52</v>
@@ -15688,7 +15680,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>44.024999999999999</v>
@@ -15700,7 +15692,7 @@
         <v>0.15811388300841889</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <v>45.774999999999999</v>
@@ -15714,7 +15706,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>47.35</v>
@@ -15726,7 +15718,7 @@
         <v>1.1446643220859165</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>49.05</v>
@@ -15740,7 +15732,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>48</v>
@@ -15752,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>49.05</v>
@@ -15792,7 +15784,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>57.15</v>
@@ -15804,7 +15796,7 @@
         <v>0.80224045247652787</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61">
         <v>58.6</v>
@@ -15818,7 +15810,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>53.35</v>
@@ -15830,7 +15822,7 @@
         <v>1.0989505483379625</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>54.924999999999997</v>
@@ -15844,7 +15836,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>48.225000000000001</v>
@@ -15856,7 +15848,7 @@
         <v>2.0691568950686792</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>51.475000000000001</v>
@@ -15870,7 +15862,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <v>46.45</v>
@@ -15882,7 +15874,7 @@
         <v>2.4801778265443093</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <v>49.825000000000003</v>
@@ -15922,7 +15914,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>51.3</v>
@@ -15934,7 +15926,7 @@
         <v>3.0651055112135688</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G66">
         <v>53.45</v>
@@ -15948,7 +15940,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>52.125</v>
@@ -15960,7 +15952,7 @@
         <v>4.5583819666462961</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67">
         <v>52.95</v>
@@ -15974,7 +15966,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>54.225000000000001</v>
@@ -15986,7 +15978,7 @@
         <v>4.5375216323564311</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68">
         <v>54</v>
@@ -16000,7 +15992,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>55.024999999999999</v>
@@ -16012,7 +16004,7 @@
         <v>3.4528880516802012</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69">
         <v>56.825000000000003</v>
@@ -16072,7 +16064,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -16084,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -16098,7 +16090,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>20</v>
@@ -16110,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -16124,7 +16116,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -16136,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -16150,7 +16142,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>40</v>
@@ -16162,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -16202,7 +16194,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>60</v>
@@ -16214,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81">
         <v>60</v>
@@ -16228,7 +16220,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -16240,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <v>70</v>
@@ -16254,7 +16246,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
         <v>80</v>
@@ -16266,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83">
         <v>80</v>
@@ -16280,7 +16272,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84">
         <v>90</v>
@@ -16292,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <v>90</v>
@@ -16332,7 +16324,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>110</v>
@@ -16344,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86">
         <v>110</v>
@@ -16358,7 +16350,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>120</v>
@@ -16370,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87">
         <v>120</v>
@@ -16384,7 +16376,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88">
         <v>130</v>
@@ -16396,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88">
         <v>130</v>
@@ -16410,7 +16402,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89">
         <v>140</v>
@@ -16422,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>140</v>
@@ -16462,7 +16454,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>160</v>
@@ -16474,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G91">
         <v>160</v>
@@ -16488,7 +16480,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>170</v>
@@ -16500,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G92">
         <v>170</v>
@@ -16514,7 +16506,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>180</v>
@@ -16526,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93">
         <v>180</v>
@@ -16540,7 +16532,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>190</v>
@@ -16552,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94">
         <v>190</v>
@@ -16601,7 +16593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -16609,7 +16601,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -16618,7 +16610,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -16629,7 +16621,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -16641,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>253.7</v>
@@ -16655,7 +16647,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -16667,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>508.65</v>
@@ -16681,7 +16673,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -16693,7 +16685,7 @@
         <v>0.37893237337253671</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>682.65</v>
@@ -16707,7 +16699,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -16719,7 +16711,7 @@
         <v>0.22072142786315224</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>849.15</v>
@@ -16759,7 +16751,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1.25</v>
@@ -16771,7 +16763,7 @@
         <v>1.7650452162436563</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1152.3499999999999</v>
@@ -16785,7 +16777,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2.2749999999999999</v>
@@ -16797,7 +16789,7 @@
         <v>2.1241891363952239</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>1337.95</v>
@@ -16811,7 +16803,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>5.05</v>
@@ -16823,7 +16815,7 @@
         <v>4.0695870136339956</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>1786.2</v>
@@ -16837,7 +16829,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>3.4</v>
@@ -16849,7 +16841,7 @@
         <v>3.2407659746677333</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>1897.55</v>
@@ -16889,7 +16881,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>11.15</v>
@@ -16901,7 +16893,7 @@
         <v>5.7313801085530836</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>2663.55</v>
@@ -16915,7 +16907,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>13.925000000000001</v>
@@ -16927,7 +16919,7 @@
         <v>5.4178598291396503</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>2739</v>
@@ -16941,7 +16933,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>14.875</v>
@@ -16953,7 +16945,7 @@
         <v>6.7868179168073635</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>2843.25</v>
@@ -16967,7 +16959,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>17.524999999999999</v>
@@ -16979,7 +16971,7 @@
         <v>6.3810114944503669</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>3075.1</v>
@@ -17019,7 +17011,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>35.9</v>
@@ -17031,7 +17023,7 @@
         <v>9.8963862868453898</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>3904.25</v>
@@ -17045,7 +17037,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>36.575000000000003</v>
@@ -17057,7 +17049,7 @@
         <v>10.616599243033502</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>3826.85</v>
@@ -17071,7 +17063,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>55.65</v>
@@ -17083,7 +17075,7 @@
         <v>13.575146974696647</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>4280.1499999999996</v>
@@ -17097,7 +17089,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>64.2</v>
@@ -17109,7 +17101,7 @@
         <v>13.187406580055539</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>4792.1499999999996</v>
@@ -17149,7 +17141,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -17160,7 +17152,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>47.3</v>
@@ -17174,7 +17166,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>128.125</v>
@@ -17188,7 +17180,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>267.77499999999998</v>
@@ -17202,7 +17194,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>436.875</v>
@@ -17230,7 +17222,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>816.15</v>
@@ -17244,7 +17236,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>1257.1500000000001</v>
@@ -17258,7 +17250,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>2222.4250000000002</v>
@@ -17272,7 +17264,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>2468.9749999999999</v>
@@ -17300,7 +17292,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>4695.75</v>
@@ -17314,7 +17306,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>5570.2749999999996</v>
@@ -17328,7 +17320,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>5516.5</v>
@@ -17342,7 +17334,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>6642.45</v>
@@ -17370,7 +17362,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>11336.4</v>
@@ -17384,7 +17376,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>11652.875</v>
@@ -17398,7 +17390,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>14229.075000000001</v>
@@ -17412,7 +17404,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>19086.25</v>
@@ -17440,7 +17432,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -17451,7 +17443,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>77.150000000000006</v>
@@ -17465,7 +17457,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>130.97499999999999</v>
@@ -17479,7 +17471,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>266.125</v>
@@ -17493,7 +17485,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>523.9</v>
@@ -17521,7 +17513,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>809.6</v>
@@ -17535,7 +17527,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>1338.65</v>
@@ -17549,7 +17541,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>2561.6999999999998</v>
@@ -17563,7 +17555,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>2543.85</v>
@@ -17591,7 +17583,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>4678.6499999999996</v>
@@ -17605,7 +17597,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>5642.1</v>
@@ -17619,7 +17611,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>5447.1750000000002</v>
@@ -17633,7 +17625,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>6799.4750000000004</v>
@@ -17661,7 +17653,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>10321.15</v>
@@ -17675,7 +17667,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>10592.45</v>
@@ -17689,7 +17681,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>12431.7</v>
@@ -17703,7 +17695,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>15766.125</v>
@@ -17731,7 +17723,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -17742,7 +17734,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.61250000000000016</v>
@@ -17756,7 +17748,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>0.50250000000000006</v>
@@ -17770,7 +17762,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0.49249999999999999</v>
@@ -17784,7 +17776,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>0.5425000000000002</v>
@@ -17812,7 +17804,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>0.5</v>
@@ -17826,7 +17818,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -17840,7 +17832,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>0.50749999999999995</v>
@@ -17854,7 +17846,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>0.5</v>
@@ -17882,7 +17874,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>0.5</v>
@@ -17896,7 +17888,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>0.5</v>
@@ -17910,7 +17902,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -17924,7 +17916,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>0.5</v>
@@ -17952,7 +17944,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>0.5</v>
@@ -17966,7 +17958,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>0.5</v>
@@ -17980,7 +17972,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>0.49249999999999988</v>
@@ -17994,7 +17986,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>0.46749999999999992</v>

--- a/memoria/escalar_agentes/libre/libre.xlsx
+++ b/memoria/escalar_agentes/libre/libre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\libre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D2F51-1794-4D81-AEFB-798688A73688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E6D45-1A1A-49EF-BE93-1F5B6751E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2168,11 +2168,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$2</c:f>
+              <c:f>Hoja1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>makespan</c:v>
+                  <c:v>valores_ideales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14152,8 +14152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
